--- a/Contest2020.51/煤价.xlsx
+++ b/Contest2020.51/煤价.xlsx
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -46,9 +42,6 @@
     <t>时期</t>
   </si>
   <si>
-    <t>价格</t>
-  </si>
-  <si>
     <t>2019.05.01</t>
   </si>
   <si>
@@ -1142,6 +1135,14 @@
   </si>
   <si>
     <t>2020.04.30</t>
+  </si>
+  <si>
+    <t>ave（题目给定某市价格）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦皇岛价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1529,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2435,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2543,7 @@
   <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2552,10 +2553,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7921,7 +7922,7 @@
   <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7932,15 +7933,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>620</v>
@@ -7948,7 +7949,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>620</v>
@@ -7956,7 +7957,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>620</v>
@@ -7964,7 +7965,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>620</v>
@@ -7972,7 +7973,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>620</v>
@@ -7980,7 +7981,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>620</v>
@@ -7988,7 +7989,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>620</v>
@@ -7996,7 +7997,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>620</v>
@@ -8004,7 +8005,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>618</v>
@@ -8012,7 +8013,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>617</v>
@@ -8020,7 +8021,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>618</v>
@@ -8028,7 +8029,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>618</v>
@@ -8036,7 +8037,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>618</v>
@@ -8044,7 +8045,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
         <v>618</v>
@@ -8052,7 +8053,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
         <v>618</v>
@@ -8060,7 +8061,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
         <v>618</v>
@@ -8068,7 +8069,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
         <v>618</v>
@@ -8076,7 +8077,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
         <v>618</v>
@@ -8084,7 +8085,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3">
         <v>617</v>
@@ -8092,7 +8093,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
         <v>617</v>
@@ -8100,7 +8101,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
         <v>616</v>
@@ -8108,7 +8109,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
         <v>615</v>
@@ -8116,7 +8117,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
         <v>615</v>
@@ -8124,7 +8125,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>615</v>
@@ -8132,7 +8133,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>615</v>
@@ -8140,7 +8141,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
         <v>614</v>
@@ -8148,7 +8149,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3">
         <v>613</v>
@@ -8156,7 +8157,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3">
         <v>611</v>
@@ -8164,7 +8165,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
         <v>608</v>
@@ -8172,7 +8173,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
         <v>604</v>
@@ -8180,7 +8181,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
         <v>598</v>
@@ -8188,7 +8189,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3">
         <v>597</v>
@@ -8196,7 +8197,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3">
         <v>597</v>
@@ -8204,7 +8205,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3">
         <v>596</v>
@@ -8212,7 +8213,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3">
         <v>595</v>
@@ -8220,7 +8221,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3">
         <v>594</v>
@@ -8228,7 +8229,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3">
         <v>594</v>
@@ -8236,7 +8237,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3">
         <v>594</v>
@@ -8244,7 +8245,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3">
         <v>594</v>
@@ -8252,7 +8253,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3">
         <v>594</v>
@@ -8260,7 +8261,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3">
         <v>595</v>
@@ -8268,7 +8269,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
         <v>595</v>
@@ -8276,7 +8277,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3">
         <v>595</v>
@@ -8284,7 +8285,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3">
         <v>595</v>
@@ -8292,7 +8293,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3">
         <v>595</v>
@@ -8300,7 +8301,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="3">
         <v>595</v>
@@ -8308,7 +8309,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="3">
         <v>595</v>
@@ -8316,7 +8317,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3">
         <v>594</v>
@@ -8324,7 +8325,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3">
         <v>593</v>
@@ -8332,7 +8333,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="3">
         <v>593</v>
@@ -8340,7 +8341,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="3">
         <v>593</v>
@@ -8348,7 +8349,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="3">
         <v>594</v>
@@ -8356,7 +8357,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" s="3">
         <v>595</v>
@@ -8364,7 +8365,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="3">
         <v>596</v>
@@ -8372,7 +8373,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="3">
         <v>597</v>
@@ -8380,7 +8381,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" s="3">
         <v>600</v>
@@ -8388,7 +8389,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
         <v>600</v>
@@ -8396,7 +8397,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3">
         <v>600</v>
@@ -8404,7 +8405,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" s="3">
         <v>601</v>
@@ -8412,7 +8413,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3">
         <v>603</v>
@@ -8420,7 +8421,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3">
         <v>604</v>
@@ -8428,7 +8429,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" s="3">
         <v>605</v>
@@ -8436,7 +8437,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3">
         <v>607</v>
@@ -8444,7 +8445,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B65" s="3">
         <v>608</v>
@@ -8452,7 +8453,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66" s="3">
         <v>608</v>
@@ -8460,7 +8461,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3">
         <v>608</v>
@@ -8468,7 +8469,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3">
         <v>607</v>
@@ -8476,7 +8477,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3">
         <v>606</v>
@@ -8484,7 +8485,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70" s="3">
         <v>607</v>
@@ -8492,7 +8493,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" s="3">
         <v>606</v>
@@ -8500,7 +8501,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3">
         <v>605</v>
@@ -8508,7 +8509,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B73" s="3">
         <v>604</v>
@@ -8516,7 +8517,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3">
         <v>602</v>
@@ -8524,7 +8525,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B75" s="3">
         <v>602</v>
@@ -8532,7 +8533,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76" s="3">
         <v>601</v>
@@ -8540,7 +8541,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B77" s="3">
         <v>601</v>
@@ -8548,7 +8549,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B78" s="3">
         <v>599</v>
@@ -8556,7 +8557,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B79" s="3">
         <v>597</v>
@@ -8564,7 +8565,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80" s="3">
         <v>595</v>
@@ -8572,7 +8573,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3">
         <v>594</v>
@@ -8580,7 +8581,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B82" s="3">
         <v>593</v>
@@ -8588,7 +8589,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B83" s="3">
         <v>593</v>
@@ -8596,7 +8597,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B84" s="3">
         <v>593</v>
@@ -8604,7 +8605,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B85" s="3">
         <v>593</v>
@@ -8612,7 +8613,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B86" s="3">
         <v>593</v>
@@ -8620,7 +8621,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87" s="3">
         <v>594</v>
@@ -8628,7 +8629,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88" s="3">
         <v>594</v>
@@ -8636,7 +8637,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B89" s="3">
         <v>594</v>
@@ -8644,7 +8645,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B90" s="3">
         <v>594</v>
@@ -8652,7 +8653,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B91" s="3">
         <v>594</v>
@@ -8660,7 +8661,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B92" s="3">
         <v>594</v>
@@ -8668,7 +8669,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B93" s="3">
         <v>594</v>
@@ -8676,7 +8677,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B94" s="3">
         <v>595</v>
@@ -8684,7 +8685,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" s="3">
         <v>594</v>
@@ -8692,7 +8693,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3">
         <v>593</v>
@@ -8700,7 +8701,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" s="3">
         <v>593</v>
@@ -8708,7 +8709,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B98" s="3">
         <v>592</v>
@@ -8716,7 +8717,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="3">
         <v>590</v>
@@ -8724,7 +8725,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B100" s="3">
         <v>588</v>
@@ -8732,7 +8733,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B101" s="3">
         <v>586</v>
@@ -8740,7 +8741,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B102" s="3">
         <v>585</v>
@@ -8748,7 +8749,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B103" s="3">
         <v>584</v>
@@ -8756,7 +8757,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B104" s="3">
         <v>584</v>
@@ -8764,7 +8765,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B105" s="3">
         <v>584</v>
@@ -8772,7 +8773,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B106" s="3">
         <v>582</v>
@@ -8780,7 +8781,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
         <v>580</v>
@@ -8788,7 +8789,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B108" s="3">
         <v>579</v>
@@ -8796,7 +8797,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B109" s="3">
         <v>580</v>
@@ -8804,7 +8805,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" s="3">
         <v>580</v>
@@ -8812,7 +8813,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B111" s="3">
         <v>580</v>
@@ -8820,7 +8821,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
         <v>581</v>
@@ -8828,7 +8829,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B113" s="3">
         <v>583</v>
@@ -8836,7 +8837,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B114" s="3">
         <v>584</v>
@@ -8844,7 +8845,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B115" s="3">
         <v>585</v>
@@ -8852,7 +8853,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B116" s="3">
         <v>585</v>
@@ -8860,7 +8861,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B117" s="3">
         <v>585</v>
@@ -8868,7 +8869,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B118" s="3">
         <v>585</v>
@@ -8876,7 +8877,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B119" s="3">
         <v>585</v>
@@ -8884,7 +8885,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B120" s="3">
         <v>585</v>
@@ -8892,7 +8893,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B121" s="3">
         <v>584</v>
@@ -8900,7 +8901,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B122" s="3">
         <v>582</v>
@@ -8908,7 +8909,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B123" s="3">
         <v>581</v>
@@ -8916,7 +8917,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B124" s="3">
         <v>581</v>
@@ -8924,7 +8925,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125" s="3">
         <v>581</v>
@@ -8932,7 +8933,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3">
         <v>581</v>
@@ -8940,7 +8941,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B127" s="3">
         <v>580</v>
@@ -8948,7 +8949,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B128" s="3">
         <v>581</v>
@@ -8956,7 +8957,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B129" s="3">
         <v>581</v>
@@ -8964,7 +8965,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3">
         <v>582</v>
@@ -8972,7 +8973,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B131" s="3">
         <v>582</v>
@@ -8980,7 +8981,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B132" s="3">
         <v>583</v>
@@ -8988,7 +8989,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B133" s="3">
         <v>584</v>
@@ -8996,7 +8997,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B134" s="3">
         <v>585</v>
@@ -9004,7 +9005,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B135" s="3">
         <v>585</v>
@@ -9012,7 +9013,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B136" s="3">
         <v>585</v>
@@ -9020,7 +9021,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B137" s="3">
         <v>585</v>
@@ -9028,7 +9029,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B138" s="3">
         <v>585</v>
@@ -9036,7 +9037,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B139" s="3">
         <v>585</v>
@@ -9044,7 +9045,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B140" s="3">
         <v>585</v>
@@ -9052,7 +9053,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B141" s="3">
         <v>585</v>
@@ -9060,7 +9061,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B142" s="3">
         <v>586</v>
@@ -9068,7 +9069,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B143" s="3">
         <v>586</v>
@@ -9076,7 +9077,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B144" s="3">
         <v>586</v>
@@ -9084,7 +9085,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B145" s="3">
         <v>586</v>
@@ -9092,7 +9093,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B146" s="3">
         <v>586</v>
@@ -9100,7 +9101,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B147" s="3">
         <v>586</v>
@@ -9108,7 +9109,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B148" s="3">
         <v>586</v>
@@ -9116,7 +9117,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B149" s="3">
         <v>586</v>
@@ -9124,7 +9125,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B150" s="3">
         <v>586</v>
@@ -9132,7 +9133,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B151" s="3">
         <v>586</v>
@@ -9140,7 +9141,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B152" s="3">
         <v>586</v>
@@ -9148,7 +9149,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B153" s="3">
         <v>586</v>
@@ -9156,7 +9157,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B154" s="3">
         <v>586</v>
@@ -9164,7 +9165,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B155" s="3">
         <v>586</v>
@@ -9172,7 +9173,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B156" s="3">
         <v>586</v>
@@ -9180,7 +9181,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B157" s="3">
         <v>586</v>
@@ -9188,7 +9189,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3">
         <v>586</v>
@@ -9196,7 +9197,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B159" s="3">
         <v>586</v>
@@ -9204,7 +9205,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B160" s="3">
         <v>586</v>
@@ -9212,7 +9213,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B161" s="3">
         <v>586</v>
@@ -9220,7 +9221,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B162" s="3">
         <v>586</v>
@@ -9228,7 +9229,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B163" s="3">
         <v>586</v>
@@ -9236,7 +9237,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B164" s="3">
         <v>585</v>
@@ -9244,7 +9245,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B165" s="3">
         <v>584</v>
@@ -9252,7 +9253,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B166" s="3">
         <v>583</v>
@@ -9260,7 +9261,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B167" s="3">
         <v>582</v>
@@ -9268,7 +9269,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B168" s="3">
         <v>582</v>
@@ -9276,7 +9277,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B169" s="3">
         <v>580</v>
@@ -9284,7 +9285,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B170" s="3">
         <v>579</v>
@@ -9292,7 +9293,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B171" s="3">
         <v>578</v>
@@ -9300,7 +9301,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B172" s="3">
         <v>577</v>
@@ -9308,7 +9309,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B173" s="3">
         <v>576</v>
@@ -9316,7 +9317,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B174" s="3">
         <v>575</v>
@@ -9324,7 +9325,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B175" s="3">
         <v>575</v>
@@ -9332,7 +9333,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B176" s="3">
         <v>574</v>
@@ -9340,7 +9341,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B177" s="3">
         <v>573</v>
@@ -9348,7 +9349,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B178" s="3">
         <v>571</v>
@@ -9356,7 +9357,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B179" s="3">
         <v>570</v>
@@ -9364,7 +9365,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B180" s="3">
         <v>569</v>
@@ -9372,7 +9373,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B181" s="3">
         <v>569</v>
@@ -9380,7 +9381,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B182" s="3">
         <v>569</v>
@@ -9388,7 +9389,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B183" s="3">
         <v>568</v>
@@ -9396,7 +9397,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B184" s="3">
         <v>566</v>
@@ -9404,7 +9405,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B185" s="3">
         <v>564</v>
@@ -9412,7 +9413,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B186" s="3">
         <v>562</v>
@@ -9420,7 +9421,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B187" s="3">
         <v>560</v>
@@ -9428,7 +9429,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B188" s="3">
         <v>559</v>
@@ -9436,7 +9437,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B189" s="3">
         <v>558</v>
@@ -9444,7 +9445,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B190" s="3">
         <v>555</v>
@@ -9452,7 +9453,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B191" s="3">
         <v>552</v>
@@ -9460,7 +9461,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B192" s="3">
         <v>551</v>
@@ -9468,7 +9469,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B193" s="3">
         <v>551</v>
@@ -9476,7 +9477,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B194" s="3">
         <v>551</v>
@@ -9484,7 +9485,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B195" s="3">
         <v>551</v>
@@ -9492,7 +9493,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B196" s="3">
         <v>551</v>
@@ -9500,7 +9501,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B197" s="3">
         <v>552</v>
@@ -9508,7 +9509,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B198" s="3">
         <v>552</v>
@@ -9516,7 +9517,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B199" s="3">
         <v>552</v>
@@ -9524,7 +9525,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B200" s="3">
         <v>552</v>
@@ -9532,7 +9533,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B201" s="3">
         <v>552</v>
@@ -9540,7 +9541,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B202" s="3">
         <v>552</v>
@@ -9548,7 +9549,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B203" s="3">
         <v>552</v>
@@ -9556,7 +9557,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B204" s="3">
         <v>552</v>
@@ -9564,7 +9565,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B205" s="3">
         <v>552</v>
@@ -9572,7 +9573,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B206" s="3">
         <v>552</v>
@@ -9580,7 +9581,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B207" s="3">
         <v>552</v>
@@ -9588,7 +9589,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B208" s="3">
         <v>552</v>
@@ -9596,7 +9597,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B209" s="3">
         <v>552</v>
@@ -9604,7 +9605,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B210" s="3">
         <v>552</v>
@@ -9612,7 +9613,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B211" s="3">
         <v>552</v>
@@ -9620,7 +9621,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B212" s="3">
         <v>552</v>
@@ -9628,7 +9629,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B213" s="3">
         <v>552</v>
@@ -9636,7 +9637,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B214" s="3">
         <v>552</v>
@@ -9644,7 +9645,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B215" s="3">
         <v>552</v>
@@ -9652,7 +9653,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B216" s="3">
         <v>552</v>
@@ -9660,7 +9661,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B217" s="3">
         <v>552</v>
@@ -9668,7 +9669,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B218" s="3">
         <v>552</v>
@@ -9676,7 +9677,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B219" s="3">
         <v>552</v>
@@ -9684,7 +9685,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B220" s="3">
         <v>552</v>
@@ -9692,7 +9693,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B221" s="3">
         <v>552</v>
@@ -9700,7 +9701,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B222" s="3">
         <v>551</v>
@@ -9708,7 +9709,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B223" s="3">
         <v>551</v>
@@ -9716,7 +9717,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B224" s="3">
         <v>551</v>
@@ -9724,7 +9725,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B225" s="3">
         <v>550</v>
@@ -9732,7 +9733,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B226" s="3">
         <v>550</v>
@@ -9740,7 +9741,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B227" s="3">
         <v>550</v>
@@ -9748,7 +9749,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B228" s="3">
         <v>550</v>
@@ -9756,7 +9757,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B229" s="3">
         <v>550</v>
@@ -9764,7 +9765,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B230" s="3">
         <v>550</v>
@@ -9772,7 +9773,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B231" s="3">
         <v>550</v>
@@ -9780,7 +9781,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B232" s="3">
         <v>550</v>
@@ -9788,7 +9789,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B233" s="3">
         <v>550</v>
@@ -9796,7 +9797,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B234" s="3">
         <v>550</v>
@@ -9804,7 +9805,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B235" s="3">
         <v>551</v>
@@ -9812,7 +9813,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B236" s="3">
         <v>552</v>
@@ -9820,7 +9821,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B237" s="3">
         <v>552</v>
@@ -9828,7 +9829,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B238" s="3">
         <v>552</v>
@@ -9836,7 +9837,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B239" s="3">
         <v>553</v>
@@ -9844,7 +9845,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B240" s="3">
         <v>554</v>
@@ -9852,7 +9853,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B241" s="3">
         <v>555</v>
@@ -9860,7 +9861,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B242" s="3">
         <v>555</v>
@@ -9868,7 +9869,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B243" s="3">
         <v>556</v>
@@ -9876,7 +9877,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B244" s="3">
         <v>556</v>
@@ -9884,7 +9885,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B245" s="3">
         <v>556</v>
@@ -9892,7 +9893,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B246" s="3">
         <v>558</v>
@@ -9900,7 +9901,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B247" s="3">
         <v>559</v>
@@ -9908,7 +9909,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B248" s="3">
         <v>559</v>
@@ -9916,7 +9917,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B249" s="3">
         <v>559</v>
@@ -9924,7 +9925,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B250" s="3">
         <v>559</v>
@@ -9932,7 +9933,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B251" s="3">
         <v>559</v>
@@ -9940,7 +9941,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B252" s="3">
         <v>559</v>
@@ -9948,7 +9949,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B253" s="3">
         <v>559</v>
@@ -9956,7 +9957,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B254" s="3">
         <v>559</v>
@@ -9964,7 +9965,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B255" s="3">
         <v>561</v>
@@ -9972,7 +9973,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B256" s="3">
         <v>562</v>
@@ -9980,7 +9981,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B257" s="3">
         <v>562</v>
@@ -9988,7 +9989,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B258" s="3">
         <v>562</v>
@@ -9996,7 +9997,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B259" s="3">
         <v>562</v>
@@ -10004,7 +10005,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B260" s="3">
         <v>563</v>
@@ -10012,7 +10013,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B261" s="3">
         <v>563</v>
@@ -10020,7 +10021,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B262" s="3">
         <v>563</v>
@@ -10028,7 +10029,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B263" s="3">
         <v>563</v>
@@ -10036,7 +10037,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B264" s="3">
         <v>563</v>
@@ -10044,7 +10045,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B265" s="3">
         <v>563</v>
@@ -10052,7 +10053,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B266" s="3">
         <v>563</v>
@@ -10060,7 +10061,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B267" s="3">
         <v>563</v>
@@ -10068,7 +10069,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B268" s="3">
         <v>563</v>
@@ -10076,7 +10077,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B269" s="3">
         <v>563</v>
@@ -10084,7 +10085,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B270" s="3">
         <v>563</v>
@@ -10092,7 +10093,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B271" s="3">
         <v>563</v>
@@ -10100,7 +10101,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B272" s="3">
         <v>563</v>
@@ -10108,7 +10109,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B273" s="3">
         <v>563</v>
@@ -10116,7 +10117,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B274" s="3">
         <v>563</v>
@@ -10124,7 +10125,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B275" s="3">
         <v>563</v>
@@ -10132,7 +10133,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B276" s="3">
         <v>563</v>
@@ -10140,7 +10141,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B277" s="3">
         <v>563</v>
@@ -10148,7 +10149,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B278" s="3">
         <v>564</v>
@@ -10156,7 +10157,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B279" s="3">
         <v>565</v>
@@ -10164,7 +10165,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B280" s="3">
         <v>566</v>
@@ -10172,7 +10173,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B281" s="3">
         <v>568</v>
@@ -10180,7 +10181,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B282" s="3">
         <v>570</v>
@@ -10188,7 +10189,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B283" s="3">
         <v>572</v>
@@ -10196,7 +10197,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B284" s="3">
         <v>573</v>
@@ -10204,7 +10205,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B285" s="3">
         <v>573</v>
@@ -10212,7 +10213,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B286" s="3">
         <v>574</v>
@@ -10220,7 +10221,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B287" s="3">
         <v>574</v>
@@ -10228,7 +10229,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B288" s="3">
         <v>576</v>
@@ -10236,7 +10237,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B289" s="3">
         <v>576</v>
@@ -10244,7 +10245,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B290" s="3">
         <v>576</v>
@@ -10252,7 +10253,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B291" s="3">
         <v>576</v>
@@ -10260,7 +10261,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B292" s="3">
         <v>576</v>
@@ -10268,7 +10269,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B293" s="3">
         <v>576</v>
@@ -10276,7 +10277,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B294" s="3">
         <v>576</v>
@@ -10284,7 +10285,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B295" s="3">
         <v>576</v>
@@ -10292,7 +10293,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B296" s="3">
         <v>576</v>
@@ -10300,7 +10301,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B297" s="3">
         <v>576</v>
@@ -10308,7 +10309,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B298" s="3">
         <v>576</v>
@@ -10316,7 +10317,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B299" s="3">
         <v>576</v>
@@ -10324,7 +10325,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B300" s="3">
         <v>576</v>
@@ -10332,7 +10333,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B301" s="3">
         <v>576</v>
@@ -10340,7 +10341,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B302" s="3">
         <v>576</v>
@@ -10348,7 +10349,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B303" s="3">
         <v>575</v>
@@ -10356,7 +10357,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B304" s="3">
         <v>574</v>
@@ -10364,7 +10365,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B305" s="3">
         <v>572</v>
@@ -10372,7 +10373,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B306" s="3">
         <v>572</v>
@@ -10380,7 +10381,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B307" s="3">
         <v>572</v>
@@ -10388,7 +10389,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B308" s="3">
         <v>572</v>
@@ -10396,7 +10397,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B309" s="3">
         <v>572</v>
@@ -10404,7 +10405,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B310" s="3">
         <v>572</v>
@@ -10412,7 +10413,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B311" s="3">
         <v>570</v>
@@ -10420,7 +10421,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B312" s="3">
         <v>570</v>
@@ -10428,7 +10429,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B313" s="3">
         <v>569</v>
@@ -10436,7 +10437,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B314" s="3">
         <v>568</v>
@@ -10444,7 +10445,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B315" s="3">
         <v>567</v>
@@ -10452,7 +10453,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B316" s="3">
         <v>565</v>
@@ -10460,7 +10461,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B317" s="3">
         <v>562</v>
@@ -10468,7 +10469,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B318" s="3">
         <v>560</v>
@@ -10476,7 +10477,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B319" s="3">
         <v>559</v>
@@ -10484,7 +10485,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B320" s="3">
         <v>558</v>
@@ -10492,7 +10493,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B321" s="3">
         <v>557</v>
@@ -10500,7 +10501,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B322" s="3">
         <v>555</v>
@@ -10508,7 +10509,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B323" s="3">
         <v>555</v>
@@ -10516,7 +10517,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B324" s="3">
         <v>553</v>
@@ -10524,7 +10525,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B325" s="3">
         <v>552</v>
@@ -10532,7 +10533,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B326" s="3">
         <v>551</v>
@@ -10540,7 +10541,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B327" s="3">
         <v>550</v>
@@ -10548,7 +10549,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B328" s="3">
         <v>550</v>
@@ -10556,7 +10557,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B329" s="3">
         <v>548</v>
@@ -10564,7 +10565,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B330" s="3">
         <v>546</v>
@@ -10572,7 +10573,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B331" s="3">
         <v>545</v>
@@ -10580,7 +10581,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B332" s="3">
         <v>546</v>
@@ -10588,7 +10589,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B333" s="3">
         <v>545</v>
@@ -10596,7 +10597,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B334" s="3">
         <v>544</v>
@@ -10604,7 +10605,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B335" s="3">
         <v>542</v>
@@ -10612,7 +10613,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B336" s="3">
         <v>539</v>
@@ -10620,7 +10621,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B337" s="3">
         <v>536</v>
@@ -10628,7 +10629,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B338" s="3">
         <v>533</v>
@@ -10636,7 +10637,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B339" s="3">
         <v>530</v>
@@ -10644,7 +10645,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B340" s="3">
         <v>528</v>
@@ -10652,7 +10653,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B341" s="3">
         <v>527</v>
@@ -10660,7 +10661,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B342" s="3">
         <v>525</v>
@@ -10668,7 +10669,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B343" s="3">
         <v>524</v>
@@ -10676,7 +10677,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B344" s="3">
         <v>521</v>
@@ -10684,7 +10685,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B345" s="3">
         <v>516</v>
@@ -10692,7 +10693,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B346" s="3">
         <v>510</v>
@@ -10700,7 +10701,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B347" s="3">
         <v>510</v>
@@ -10708,7 +10709,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B348" s="3">
         <v>505</v>
@@ -10716,7 +10717,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B349" s="3">
         <v>505</v>
@@ -10724,7 +10725,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B350" s="3">
         <v>500</v>
@@ -10732,7 +10733,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B351" s="3">
         <v>498</v>
@@ -10740,7 +10741,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B352" s="3">
         <v>498</v>
@@ -10748,7 +10749,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B353" s="3">
         <v>498</v>
@@ -10756,7 +10757,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B354" s="3">
         <v>498</v>
@@ -10764,7 +10765,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B355" s="3">
         <v>498</v>
@@ -10772,7 +10773,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B356" s="3">
         <v>498</v>
@@ -10780,7 +10781,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B357" s="3">
         <v>495</v>
@@ -10788,7 +10789,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B358" s="3">
         <v>493</v>
@@ -10796,7 +10797,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B359" s="3">
         <v>488</v>
@@ -10804,7 +10805,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B360" s="3">
         <v>485</v>
@@ -10812,7 +10813,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B361" s="3">
         <v>483</v>
@@ -10820,7 +10821,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B362" s="3">
         <v>481</v>
@@ -10828,7 +10829,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B363" s="3">
         <v>478</v>
@@ -10836,7 +10837,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B364" s="3">
         <v>476</v>
@@ -10844,7 +10845,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B365" s="3">
         <v>475</v>
@@ -10852,7 +10853,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B366" s="3">
         <v>475</v>
